--- a/public/reportes/informe2.xlsx
+++ b/public/reportes/informe2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Nombre:</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>ÓRGANO ORIGEN</t>
-  </si>
-  <si>
-    <t>ÓRGANO DESTINO</t>
   </si>
   <si>
     <t>RESPUESTA A CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -608,53 +605,53 @@
     <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="19" customWidth="1"/>
-    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.1796875" customWidth="1"/>
-    <col min="38" max="38" width="32.81640625" customWidth="1"/>
-    <col min="39" max="39" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.54296875" customWidth="1"/>
-    <col min="43" max="43" width="15" customWidth="1"/>
-    <col min="44" max="44" width="12.1796875" customWidth="1"/>
-    <col min="45" max="45" width="18.81640625" customWidth="1"/>
-    <col min="46" max="46" width="15.08984375" customWidth="1"/>
-    <col min="47" max="47" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="19" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.1796875" customWidth="1"/>
+    <col min="37" max="37" width="32.81640625" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.54296875" customWidth="1"/>
+    <col min="42" max="42" width="15" customWidth="1"/>
+    <col min="43" max="43" width="12.1796875" customWidth="1"/>
+    <col min="44" max="44" width="18.81640625" customWidth="1"/>
+    <col min="45" max="45" width="15.08984375" customWidth="1"/>
+    <col min="46" max="46" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -685,33 +682,32 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AH9" s="8" t="s">
+      <c r="AG9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AP9" s="7" t="s">
+      <c r="AO9" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
     </row>
-    <row r="10" spans="1:47" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -779,72 +775,69 @@
         <v>35</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="AG10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="AH10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AP10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AQ10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="AT10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AP9:AU9"/>
+    <mergeCell ref="AO9:AT9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="R9:X9"/>
-    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AG9:AM9"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="Z9:AE9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/reportes/informe2.xlsx
+++ b/public/reportes/informe2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Nombre:</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>RESPUESTA A CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Entrega</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -599,59 +605,62 @@
     <col min="14" max="14" width="20.1796875" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="19.36328125" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="13.90625" customWidth="1"/>
-    <col min="20" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="19" customWidth="1"/>
-    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.1796875" customWidth="1"/>
-    <col min="37" max="37" width="32.81640625" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.54296875" customWidth="1"/>
-    <col min="42" max="42" width="15" customWidth="1"/>
-    <col min="43" max="43" width="12.1796875" customWidth="1"/>
-    <col min="44" max="44" width="18.81640625" customWidth="1"/>
-    <col min="45" max="45" width="15.08984375" customWidth="1"/>
-    <col min="46" max="46" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="13.90625" customWidth="1"/>
+    <col min="24" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="19" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.1796875" customWidth="1"/>
+    <col min="41" max="41" width="32.81640625" customWidth="1"/>
+    <col min="42" max="42" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.54296875" customWidth="1"/>
+    <col min="46" max="46" width="15" customWidth="1"/>
+    <col min="47" max="47" width="12.1796875" customWidth="1"/>
+    <col min="48" max="48" width="18.81640625" customWidth="1"/>
+    <col min="49" max="49" width="15.08984375" customWidth="1"/>
+    <col min="50" max="50" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -672,42 +681,47 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="V9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Z9" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AE9" s="9"/>
-      <c r="AG9" s="8" t="s">
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AK9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AO9" s="7" t="s">
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AS9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:46" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -751,93 +765,103 @@
         <v>7</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AT10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AQ10" s="3" t="s">
+      <c r="AU10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS10" s="5" t="s">
+      <c r="AW10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AT10" s="5" t="s">
+      <c r="AX10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AO9:AT9"/>
+    <mergeCell ref="AS9:AX9"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="R9:X9"/>
-    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AK9:AQ9"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Z9:AE9"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="R9:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
